--- a/5 semester/Econometrics/Prac 02/Prac 02.xlsx
+++ b/5 semester/Econometrics/Prac 02/Prac 02.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farkhad/Desktop/FU/5 semester/Econometrics/Prac 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\FU\5 semester\Econometrics\Prac 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22266992-ADC0-4C46-BF2B-E50B8044EF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A9CD0-0FF7-45EE-84D0-6D898AF0BA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prac 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Example 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,21 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>x*y</t>
   </si>
   <si>
     <t>x_</t>
@@ -57,26 +49,71 @@
     <t>y_</t>
   </si>
   <si>
-    <t>x-x_</t>
+    <t>x^2</t>
   </si>
   <si>
-    <t>y-y_</t>
+    <t>y^2</t>
   </si>
   <si>
-    <t>(x-x_)2</t>
+    <t>xi * yi</t>
   </si>
   <si>
-    <t>(y-y_)2</t>
+    <t>xi - xср.</t>
   </si>
   <si>
-    <t>(x-x_)*(y-y_)</t>
+    <t>yi - yср.</t>
+  </si>
+  <si>
+    <t>(xi - xср.)^2</t>
+  </si>
+  <si>
+    <t>(yi - yср.)^2</t>
+  </si>
+  <si>
+    <t>(xi - xср.) * (yi - yср.)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Лин. Коэф. Корреляции</t>
+  </si>
+  <si>
+    <t>∑ ((xi - xср.)^2)</t>
+  </si>
+  <si>
+    <t>∑ ((yi - yср.)^2)</t>
+  </si>
+  <si>
+    <t>∑ ((xi - xср.) * (yi - yср.))</t>
+  </si>
+  <si>
+    <t>&lt;TICKER&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DATE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CLOSE&gt;</t>
+  </si>
+  <si>
+    <t>US1.NVDA</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Bitcoin-USD</t>
+  </si>
+  <si>
+    <t>GDAX.BTC-USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,16 +122,45 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -102,17 +168,422 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -123,6 +594,2298 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Точечная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> диаграмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prac 2'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prac 2'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E313-4D56-9B74-AFF49BF882C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="178343632"/>
+        <c:axId val="178344048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178343632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178344048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178344048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178343632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Точечная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> диаграмма. Зависимость </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Nvidia </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Bitcoine-USD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Example 1'!$K$2:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>143.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>235.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>236.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>263.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>292.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>353.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>379.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>424.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>540.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>502.06</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>536.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>522.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>518.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>548.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>534.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>600.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>649.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>800.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Example 1'!$L$2:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3411.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3792.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4094.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5270.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8554.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10761.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10087.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9600.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8304.9599999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9159.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7555.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7165.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9334.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8525.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6424.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8624.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9446.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9136.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11351.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11655</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10779.63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13804.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19713.939999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28990.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33137.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45231.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57798.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37279.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B3C-4AF0-9DDF-A2A470F58CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336155232"/>
+        <c:axId val="336156896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336155232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336156896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336156896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336155232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2024AD1B-89D6-4E9A-9D57-C5C15AA5C044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA855BDA-9591-4263-A532-746EAA549FB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C424D7E4-E9B8-4FD3-89B9-AD9E70624F53}" name="Таблица1" displayName="Таблица1" ref="A1:J31" totalsRowShown="0">
+  <autoFilter ref="A1:J31" xr:uid="{C424D7E4-E9B8-4FD3-89B9-AD9E70624F53}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3E324EA1-E14C-4169-81AA-5FE3E6FECCC6}" name="x"/>
+    <tableColumn id="2" xr3:uid="{4B0E6BF9-4DE5-4DDF-957C-83AB4E360153}" name="y"/>
+    <tableColumn id="3" xr3:uid="{DDB0A392-80D0-4805-A975-9C4CB784B9F8}" name="x^2">
+      <calculatedColumnFormula>POWER(A2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FBC58116-62FB-4C76-BE71-495F08B38D19}" name="y^2">
+      <calculatedColumnFormula>POWER(B2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3CD75855-6330-4CAF-B2FD-4B545543F8E2}" name="xi * yi">
+      <calculatedColumnFormula>A2*B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C4158910-0ADE-4278-BA64-CF76D402FCB3}" name="xi - xср.">
+      <calculatedColumnFormula>A2-$L$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3CDB644D-857D-4ED2-B2BF-B5D35E73E55D}" name="yi - yср.">
+      <calculatedColumnFormula>B2-$M$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6B3B464A-261B-45D4-9CC6-A938A16B9A5E}" name="(xi - xср.)^2">
+      <calculatedColumnFormula>POWER(F2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3B795F64-5B36-46BD-9484-198F83E6FAC2}" name="(yi - yср.)^2">
+      <calculatedColumnFormula>POWER(G2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F683D9BE-4571-4A59-B335-6265D2163D5C}" name="(xi - xср.) * (yi - yср.)">
+      <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E9C583C-F012-4058-9A96-5862F68DC59F}" name="Таблица13" displayName="Таблица13" ref="K1:T31" totalsRowShown="0">
+  <autoFilter ref="K1:T31" xr:uid="{4E9C583C-F012-4058-9A96-5862F68DC59F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7B1AC84E-0505-41B7-9BCF-7D44D9BADB2A}" name="x"/>
+    <tableColumn id="2" xr3:uid="{887BA868-7ACC-4048-92AF-C9A7F2E85137}" name="y"/>
+    <tableColumn id="3" xr3:uid="{B0693CB8-8153-4BE7-9BA5-BD5E33DE5468}" name="x^2">
+      <calculatedColumnFormula>POWER(K2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B0729C52-7150-4D4F-9EA6-10B88E19E09B}" name="y^2">
+      <calculatedColumnFormula>POWER(L2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{FB6674B3-D038-4531-BFE3-64E9AD9A2BD9}" name="xi * yi">
+      <calculatedColumnFormula>K2*L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A4FB0522-293C-477D-9766-28EFAC40A445}" name="xi - xср." dataDxfId="1">
+      <calculatedColumnFormula>K2-$V$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{563BBB41-3556-4E34-B3E4-C249A5DD9113}" name="yi - yср." dataDxfId="0">
+      <calculatedColumnFormula>L2-$W$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2538262B-8D6F-4BF6-ACBB-F6F284F7EB2C}" name="(xi - xср.)^2">
+      <calculatedColumnFormula>POWER(P2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CD9B3A4B-A636-4CF8-A1F1-0167B10465BA}" name="(yi - yср.)^2">
+      <calculatedColumnFormula>POWER(Q2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{21DD2082-CD7D-440A-9C77-11DED2FA4A65}" name="(xi - xср.) * (yi - yср.)" dataDxfId="2">
+      <calculatedColumnFormula>P2*Q2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CAE09ED-03BF-4CFC-A2BB-726B443F9061}" name="Таблица3" displayName="Таблица3" ref="G1:I31" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="G1:I31" xr:uid="{9CAE09ED-03BF-4CFC-A2BB-726B443F9061}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E7D1EA1B-EAEB-4A40-A146-315753BFB76B}" name="&lt;TICKER&gt;" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D6D77F97-33B0-4DC7-803F-EEA0C982B320}" name="&lt;DATE&gt;" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F93ADC83-7D00-4A03-A079-4BD8AAAABCCF}" name="&lt;CLOSE&gt;" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2E5D77FF-56EB-4ECC-9104-3B03BE44AEF4}" name="Таблица4" displayName="Таблица4" ref="B1:D31" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="B1:D31" xr:uid="{2E5D77FF-56EB-4ECC-9104-3B03BE44AEF4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{150A815B-848A-4277-8505-FE971E7C5602}" name="&lt;TICKER&gt;" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EA3EE53D-6F1A-44D8-966B-F27C85471066}" name="&lt;DATE&gt;" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FCBE7811-49CB-4FBC-A802-52896B708A00}" name="&lt;CLOSE&gt;" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,15 +3185,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B9445D-CCE5-B848-9871-42130D3E07D6}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,37 +3216,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -488,35 +3272,43 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <f>A2-$L$2</f>
+        <v>-14.5</v>
+      </c>
+      <c r="G2">
+        <f>B2-$M$2</f>
+        <v>-29</v>
+      </c>
+      <c r="H2">
+        <f>POWER(F2,2)</f>
+        <v>210.25</v>
+      </c>
+      <c r="I2">
+        <f>POWER(G2,2)</f>
+        <v>841</v>
+      </c>
+      <c r="J2">
+        <f>F2*G2</f>
+        <v>420.5</v>
+      </c>
+      <c r="L2" s="1">
         <f>AVERAGE(A2:A31)</f>
         <v>15.5</v>
       </c>
-      <c r="G2">
+      <c r="M2" s="1">
         <f>AVERAGE(B2:B31)</f>
         <v>30</v>
       </c>
-      <c r="H2">
-        <f>A2-$F$2</f>
-        <v>-14.5</v>
-      </c>
-      <c r="I2">
-        <f>B2-$G$2</f>
-        <v>-29</v>
-      </c>
-      <c r="J2">
-        <f>POWER(H2,2)</f>
-        <v>210.25</v>
-      </c>
-      <c r="K2">
-        <f>POWER(I2,2)</f>
-        <v>841</v>
-      </c>
-      <c r="L2">
-        <f>H2*I2</f>
-        <v>420.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="1">
+        <f>CORREL(Таблица1[x],Таблица1[y])</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O2" s="1">
+        <f>COUNT(Таблица1[x])</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,28 +3327,28 @@
         <f t="shared" ref="E3:E31" si="1">A3*B3</f>
         <v>6</v>
       </c>
+      <c r="F3">
+        <f>A3-$L$2</f>
+        <v>-13.5</v>
+      </c>
+      <c r="G3">
+        <f>B3-$M$2</f>
+        <v>-27</v>
+      </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="2">A3-$F$2</f>
-        <v>-13.5</v>
+        <f t="shared" ref="H3:I31" si="2">POWER(F3,2)</f>
+        <v>182.25</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I31" si="3">B3-$G$2</f>
-        <v>-27</v>
+        <f t="shared" si="2"/>
+        <v>729</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:K31" si="4">POWER(H3,2)</f>
-        <v>182.25</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="4"/>
-        <v>729</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L31" si="5">H3*I3</f>
+        <f t="shared" ref="J3:J31" si="3">F3*G3</f>
         <v>364.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -575,28 +3367,37 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="F4">
+        <f>A4-$L$2</f>
+        <v>-12.5</v>
+      </c>
+      <c r="G4">
+        <f>B4-$M$2</f>
+        <v>-25</v>
+      </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>-12.5</v>
+        <v>156.25</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>-25</v>
+        <f>POWER(G4,2)</f>
+        <v>625</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
-        <v>156.25</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="4"/>
-        <v>625</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>312.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -615,28 +3416,37 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
+      <c r="F5">
+        <f>A5-$L$2</f>
+        <v>-11.5</v>
+      </c>
+      <c r="G5">
+        <f>B5-$M$2</f>
+        <v>-23</v>
+      </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>-11.5</v>
+        <v>132.25</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>-23</v>
+        <f t="shared" si="2"/>
+        <v>529</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>132.25</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>529</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>264.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -655,28 +3465,37 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
+      <c r="F6">
+        <f>A6-$L$2</f>
+        <v>-10.5</v>
+      </c>
+      <c r="G6">
+        <f>B6-$M$2</f>
+        <v>-21</v>
+      </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>-10.5</v>
+        <v>110.25</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
-        <v>-21</v>
+        <f t="shared" si="2"/>
+        <v>441</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
-        <v>110.25</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>441</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>220.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -695,28 +3514,37 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
+      <c r="F7">
+        <f>A7-$L$2</f>
+        <v>-9.5</v>
+      </c>
+      <c r="G7">
+        <f>B7-$M$2</f>
+        <v>-19</v>
+      </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>-9.5</v>
+        <v>90.25</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
-        <v>-19</v>
+        <f t="shared" si="2"/>
+        <v>361</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
-        <v>90.25</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>361</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>180.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -735,28 +3563,37 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
+      <c r="F8">
+        <f>A8-$L$2</f>
+        <v>-8.5</v>
+      </c>
+      <c r="G8">
+        <f>B8-$M$2</f>
+        <v>-17</v>
+      </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>-8.5</v>
+        <v>72.25</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>-17</v>
+        <f t="shared" si="2"/>
+        <v>289</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
-        <v>72.25</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>144.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -775,28 +3612,37 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
+      <c r="F9">
+        <f>A9-$L$2</f>
+        <v>-7.5</v>
+      </c>
+      <c r="G9">
+        <f>B9-$M$2</f>
+        <v>-15</v>
+      </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>-7.5</v>
+        <v>56.25</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
-        <v>56.25</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="11"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -815,28 +3661,37 @@
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
+      <c r="F10">
+        <f>A10-$L$2</f>
+        <v>-6.5</v>
+      </c>
+      <c r="G10">
+        <f>B10-$M$2</f>
+        <v>-13</v>
+      </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>-6.5</v>
+        <v>42.25</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
-        <v>-13</v>
+        <f t="shared" si="2"/>
+        <v>169</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
-        <v>42.25</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>169</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -855,28 +3710,37 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
+      <c r="F11">
+        <f>A11-$L$2</f>
+        <v>-5.5</v>
+      </c>
+      <c r="G11">
+        <f>B11-$M$2</f>
+        <v>-11</v>
+      </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>-5.5</v>
+        <v>30.25</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>-11</v>
+        <f t="shared" si="2"/>
+        <v>121</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
-        <v>30.25</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="11"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -895,28 +3759,37 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
+      <c r="F12">
+        <f>A12-$L$2</f>
+        <v>-4.5</v>
+      </c>
+      <c r="G12">
+        <f>B12-$M$2</f>
+        <v>-9</v>
+      </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>-4.5</v>
+        <v>20.25</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>-9</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>20.25</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="11"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -935,28 +3808,37 @@
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
+      <c r="F13">
+        <f>A13-$L$2</f>
+        <v>-3.5</v>
+      </c>
+      <c r="G13">
+        <f>B13-$M$2</f>
+        <v>-7</v>
+      </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>-3.5</v>
+        <v>12.25</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>-7</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>12.25</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="11"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -975,28 +3857,37 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
+      <c r="F14">
+        <f>A14-$L$2</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G14">
+        <f>B14-$M$2</f>
+        <v>-5</v>
+      </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>6.25</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>-5</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1015,28 +3906,37 @@
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
+      <c r="F15">
+        <f>A15-$L$2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G15">
+        <f>B15-$M$2</f>
+        <v>-3</v>
+      </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>2.25</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>-3</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>2.25</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1055,28 +3955,37 @@
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
+      <c r="F16">
+        <f>A16-$L$2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
+        <f>B16-$M$2</f>
+        <v>-1</v>
+      </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1095,28 +4004,37 @@
         <f t="shared" si="1"/>
         <v>496</v>
       </c>
+      <c r="F17">
+        <f>A17-$L$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f>B17-$M$2</f>
+        <v>1</v>
+      </c>
       <c r="H17">
         <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1135,28 +4053,37 @@
         <f t="shared" si="1"/>
         <v>561</v>
       </c>
+      <c r="F18">
+        <f>A18-$L$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <f>B18-$M$2</f>
+        <v>3</v>
+      </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>2.25</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="11"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1175,28 +4102,37 @@
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
+      <c r="F19">
+        <f>A19-$L$2</f>
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <f>B19-$M$2</f>
+        <v>5</v>
+      </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="11"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1215,28 +4151,37 @@
         <f t="shared" si="1"/>
         <v>703</v>
       </c>
+      <c r="F20">
+        <f>A20-$L$2</f>
+        <v>3.5</v>
+      </c>
+      <c r="G20">
+        <f>B20-$M$2</f>
+        <v>7</v>
+      </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>12.25</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>12.25</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="11"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1255,28 +4200,37 @@
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
+      <c r="F21">
+        <f>A21-$L$2</f>
+        <v>4.5</v>
+      </c>
+      <c r="G21">
+        <f>B21-$M$2</f>
+        <v>9</v>
+      </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>20.25</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>20.25</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="11"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1295,28 +4249,37 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
+      <c r="F22">
+        <f>A22-$L$2</f>
+        <v>5.5</v>
+      </c>
+      <c r="G22">
+        <f>B22-$M$2</f>
+        <v>11</v>
+      </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>30.25</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>121</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>30.25</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="11"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1335,28 +4298,37 @@
         <f t="shared" si="1"/>
         <v>946</v>
       </c>
+      <c r="F23">
+        <f>A23-$L$2</f>
+        <v>6.5</v>
+      </c>
+      <c r="G23">
+        <f>B23-$M$2</f>
+        <v>13</v>
+      </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>42.25</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>169</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>42.25</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>169</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="11"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1375,28 +4347,37 @@
         <f t="shared" si="1"/>
         <v>1035</v>
       </c>
+      <c r="F24">
+        <f>A24-$L$2</f>
+        <v>7.5</v>
+      </c>
+      <c r="G24">
+        <f>B24-$M$2</f>
+        <v>15</v>
+      </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>56.25</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>56.25</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="11"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1415,28 +4396,37 @@
         <f t="shared" si="1"/>
         <v>1128</v>
       </c>
+      <c r="F25">
+        <f>A25-$L$2</f>
+        <v>8.5</v>
+      </c>
+      <c r="G25">
+        <f>B25-$M$2</f>
+        <v>17</v>
+      </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>72.25</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>289</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>72.25</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>144.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="11"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1455,28 +4445,37 @@
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
+      <c r="F26">
+        <f>A26-$L$2</f>
+        <v>9.5</v>
+      </c>
+      <c r="G26">
+        <f>B26-$M$2</f>
+        <v>19</v>
+      </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>90.25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>361</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
-        <v>90.25</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>361</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>180.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="11"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1495,28 +4494,37 @@
         <f t="shared" si="1"/>
         <v>1326</v>
       </c>
+      <c r="F27">
+        <f>A27-$L$2</f>
+        <v>10.5</v>
+      </c>
+      <c r="G27">
+        <f>B27-$M$2</f>
+        <v>21</v>
+      </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>110.25</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>441</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>110.25</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>441</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>220.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="11"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1535,28 +4543,37 @@
         <f t="shared" si="1"/>
         <v>1431</v>
       </c>
+      <c r="F28">
+        <f>A28-$L$2</f>
+        <v>11.5</v>
+      </c>
+      <c r="G28">
+        <f>B28-$M$2</f>
+        <v>23</v>
+      </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>132.25</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>529</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>132.25</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>529</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>264.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="11"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1575,28 +4592,37 @@
         <f t="shared" si="1"/>
         <v>1540</v>
       </c>
+      <c r="F29">
+        <f>A29-$L$2</f>
+        <v>12.5</v>
+      </c>
+      <c r="G29">
+        <f>B29-$M$2</f>
+        <v>25</v>
+      </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>156.25</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>625</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
-        <v>156.25</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>625</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>312.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="11"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1615,28 +4641,37 @@
         <f t="shared" si="1"/>
         <v>1653</v>
       </c>
+      <c r="F30">
+        <f>A30-$L$2</f>
+        <v>13.5</v>
+      </c>
+      <c r="G30">
+        <f>B30-$M$2</f>
+        <v>27</v>
+      </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>182.25</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>729</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>182.25</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>729</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>364.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="11"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1655,28 +4690,1985 @@
         <f t="shared" si="1"/>
         <v>1770</v>
       </c>
+      <c r="F31">
+        <f>A31-$L$2</f>
+        <v>14.5</v>
+      </c>
+      <c r="G31">
+        <f>B31-$M$2</f>
+        <v>29</v>
+      </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>14.5</v>
+        <v>210.25</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>841</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
-        <v>210.25</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>841</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>420.5</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="14"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <f>SUM(Таблица1[(xi - xср.)^2])</f>
+        <v>2247.5</v>
+      </c>
+      <c r="I34" s="1">
+        <f>SUM(Таблица1[(yi - yср.)^2])</f>
+        <v>8990</v>
+      </c>
+      <c r="J34" s="1">
+        <f>SUM(Таблица1[(xi - xср.) * (yi - yср.)])</f>
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="17">
+        <f>J34/SQRT(H34*I34)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02FB51-F143-4BA9-B7E1-AED3DA91C078}">
+  <dimension ref="A1:Y37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.375" customWidth="1"/>
+    <col min="24" max="24" width="22.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19">
+        <v>43466</v>
+      </c>
+      <c r="D2" s="21">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19">
+        <v>43466</v>
+      </c>
+      <c r="I2" s="21">
+        <v>3411.5</v>
+      </c>
+      <c r="K2">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="L2">
+        <v>3411.5</v>
+      </c>
+      <c r="M2">
+        <f>POWER(K2,2)</f>
+        <v>20649.689999999995</v>
+      </c>
+      <c r="N2">
+        <f>POWER(L2,2)</f>
+        <v>11638332.25</v>
+      </c>
+      <c r="O2">
+        <f>K2*L2</f>
+        <v>490232.55</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P31" si="0">K2-$V$2</f>
+        <v>-210.64333333333332</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q31" si="1">L2-$W$2</f>
+        <v>-13350.266</v>
+      </c>
+      <c r="R2">
+        <f>POWER(P2,2)</f>
+        <v>44370.613877777774</v>
+      </c>
+      <c r="S2">
+        <f>POWER(Q2,2)</f>
+        <v>178229602.27075598</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T31" si="2">P2*Q2</f>
+        <v>2812144.5311266663</v>
+      </c>
+      <c r="V2" s="1">
+        <f>AVERAGE(K2:K31)</f>
+        <v>354.34333333333331</v>
+      </c>
+      <c r="W2" s="1">
+        <f>AVERAGE(L2:L31)</f>
+        <v>16761.766</v>
+      </c>
+      <c r="X2" s="1">
+        <f>CORREL(Таблица13[x],Таблица13[y])</f>
+        <v>0.7390343755658686</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>COUNT(Таблица13[x])</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="19">
+        <v>43497</v>
+      </c>
+      <c r="D3" s="21">
+        <v>154.32</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="19">
+        <v>43497</v>
+      </c>
+      <c r="I3" s="21">
+        <v>3792.14</v>
+      </c>
+      <c r="K3">
+        <v>154.32</v>
+      </c>
+      <c r="L3">
+        <v>3792.14</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:N31" si="3">POWER(K3,2)</f>
+        <v>23814.662399999997</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="3"/>
+        <v>14380325.779599998</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O31" si="4">K3*L3</f>
+        <v>585203.04479999992</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-200.02333333333331</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>-12969.626</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:S31" si="5">POWER(P3,2)</f>
+        <v>40009.333877777768</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="5"/>
+        <v>168211198.57987601</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>2594227.8246066663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43525</v>
+      </c>
+      <c r="D4" s="21">
+        <v>179.56</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="19">
+        <v>43525</v>
+      </c>
+      <c r="I4" s="21">
+        <v>4094.99</v>
+      </c>
+      <c r="K4">
+        <v>179.56</v>
+      </c>
+      <c r="L4">
+        <v>4094.99</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>32241.793600000001</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>16768943.100099998</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>735296.4044</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>-174.7833333333333</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>-12666.776</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>30549.213611111099</v>
+      </c>
+      <c r="S4">
+        <f>POWER(Q4,2)</f>
+        <v>160447214.23417601</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>2213941.3318666662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19">
+        <v>43556</v>
+      </c>
+      <c r="D5" s="21">
+        <v>181.07</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="19">
+        <v>43556</v>
+      </c>
+      <c r="I5" s="21">
+        <v>5270.69</v>
+      </c>
+      <c r="K5">
+        <v>181.07</v>
+      </c>
+      <c r="L5">
+        <v>5270.69</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>32786.344899999996</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>27780173.076099996</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>954363.83829999994</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>-173.27333333333331</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>-11491.076000000001</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>30023.648044444439</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>132044827.63777602</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>1991097.0421066666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43586</v>
+      </c>
+      <c r="D6" s="21">
+        <v>135.44</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="19">
+        <v>43586</v>
+      </c>
+      <c r="I6" s="21">
+        <v>8554.06</v>
+      </c>
+      <c r="K6">
+        <v>135.44</v>
+      </c>
+      <c r="L6">
+        <v>8554.06</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>18343.993599999998</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>73171942.483599991</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>1158561.8864</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-218.90333333333331</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>-8207.7060000000001</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>47918.669344444432</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>67366437.782435998</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>1796694.2024199998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="19">
+        <v>43617</v>
+      </c>
+      <c r="D7" s="21">
+        <v>164.22</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="19">
+        <v>43617</v>
+      </c>
+      <c r="I7" s="21">
+        <v>10761.26</v>
+      </c>
+      <c r="K7">
+        <v>164.22</v>
+      </c>
+      <c r="L7">
+        <v>10761.26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>26968.2084</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>115804716.78760001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>1767214.1172</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>-190.12333333333331</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>-6000.5059999999994</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>36146.881877777771</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>36006072.256035991</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>1140836.2024066665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="19">
+        <v>43647</v>
+      </c>
+      <c r="D8" s="21">
+        <v>168.69</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="19">
+        <v>43647</v>
+      </c>
+      <c r="I8" s="21">
+        <v>10087.299999999999</v>
+      </c>
+      <c r="K8">
+        <v>168.69</v>
+      </c>
+      <c r="L8">
+        <v>10087.299999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>28456.3161</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>101753621.28999999</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>1701626.6369999999</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-185.65333333333331</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>-6674.4660000000003</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>34467.160177777769</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>44548496.385156006</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>1239136.8611199998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="19">
+        <v>43678</v>
+      </c>
+      <c r="D9" s="21">
+        <v>167.54</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19">
+        <v>43678</v>
+      </c>
+      <c r="I9" s="21">
+        <v>9600.86</v>
+      </c>
+      <c r="K9">
+        <v>167.54</v>
+      </c>
+      <c r="L9">
+        <v>9600.86</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>28069.651599999997</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>92176512.739600018</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>1608528.0844000001</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-186.80333333333331</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>-7160.905999999999</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>34895.485344444438</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>51278574.740835987</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>1337681.1104866664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19">
+        <v>43709</v>
+      </c>
+      <c r="D10" s="21">
+        <v>174.06</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19">
+        <v>43709</v>
+      </c>
+      <c r="I10" s="21">
+        <v>8304.9599999999991</v>
+      </c>
+      <c r="K10">
+        <v>174.06</v>
+      </c>
+      <c r="L10">
+        <v>8304.9599999999991</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>30296.883600000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>68972360.601599991</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>1445561.3376</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-180.2833333333333</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>-8456.8060000000005</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>32502.080277777768</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>71517567.721636012</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>1524621.1750333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19">
+        <v>43739</v>
+      </c>
+      <c r="D11" s="21">
+        <v>201.04</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19">
+        <v>43739</v>
+      </c>
+      <c r="I11" s="21">
+        <v>9159.48</v>
+      </c>
+      <c r="K11">
+        <v>201.04</v>
+      </c>
+      <c r="L11">
+        <v>9159.48</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>40417.081599999998</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>83896073.870399997</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>1841421.8591999998</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>-153.30333333333331</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>-7602.2860000000001</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>23501.912011111104</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>57794752.425796002</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>1165455.7847533331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="19">
+        <v>43770</v>
+      </c>
+      <c r="D12" s="21">
+        <v>216.74</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19">
+        <v>43770</v>
+      </c>
+      <c r="I12" s="21">
+        <v>7555.92</v>
+      </c>
+      <c r="K12">
+        <v>216.74</v>
+      </c>
+      <c r="L12">
+        <v>7555.92</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>46976.227600000006</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>57091927.046400003</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>1637670.1008000001</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>-137.6033333333333</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>-9205.8459999999995</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>18934.677344444433</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>84747600.575715989</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>1266755.0957533328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43800</v>
+      </c>
+      <c r="D13" s="21">
+        <v>235.29</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="19">
+        <v>43800</v>
+      </c>
+      <c r="I13" s="21">
+        <v>7165.72</v>
+      </c>
+      <c r="K13">
+        <v>235.29</v>
+      </c>
+      <c r="L13">
+        <v>7165.72</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>55361.384099999996</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>51347543.1184</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>1686022.2588</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>-119.05333333333331</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>-9596.0459999999985</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>14173.696177777772</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>92084098.834115967</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>1142441.2631199996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43831</v>
+      </c>
+      <c r="D14" s="21">
+        <v>236.43</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="19">
+        <v>43831</v>
+      </c>
+      <c r="I14" s="21">
+        <v>9334.98</v>
+      </c>
+      <c r="K14">
+        <v>236.43</v>
+      </c>
+      <c r="L14">
+        <v>9334.98</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>55899.144900000007</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>87141851.600399986</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>2207069.3213999998</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>-117.9133333333333</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>-7426.7860000000001</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>13903.554177777769</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>55157150.289796002</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>875717.09321333305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="19">
+        <v>43862</v>
+      </c>
+      <c r="D15" s="21">
+        <v>270.08</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="19">
+        <v>43862</v>
+      </c>
+      <c r="I15" s="21">
+        <v>8525.07</v>
+      </c>
+      <c r="K15">
+        <v>270.08</v>
+      </c>
+      <c r="L15">
+        <v>8525.07</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>72943.206399999995</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>72676818.504899994</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>2302450.9055999997</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>-84.263333333333321</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>-8236.6959999999999</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>7100.3093444444421</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>67843160.996416003</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>694051.46061333327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="19">
+        <v>43891</v>
+      </c>
+      <c r="D16" s="21">
+        <v>263.58</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="19">
+        <v>43891</v>
+      </c>
+      <c r="I16" s="21">
+        <v>6424.35</v>
+      </c>
+      <c r="K16">
+        <v>263.58</v>
+      </c>
+      <c r="L16">
+        <v>6424.35</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>69474.416399999987</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>41272272.922500007</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>1693330.173</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>-90.763333333333321</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>-10337.415999999999</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>8237.9826777777762</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>106862169.55705598</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>938258.33421333309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="19">
+        <v>43922</v>
+      </c>
+      <c r="D17" s="21">
+        <v>292.05</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="19">
+        <v>43922</v>
+      </c>
+      <c r="I17" s="21">
+        <v>8624.2800000000007</v>
+      </c>
+      <c r="K17">
+        <v>292.05</v>
+      </c>
+      <c r="L17">
+        <v>8624.2800000000007</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>85293.202499999999</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>74378205.518400013</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>2518720.9740000004</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>-62.293333333333294</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>-8137.485999999999</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>3880.4593777777727</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>66218678.400195986</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>506911.12789333297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="19">
+        <v>43952</v>
+      </c>
+      <c r="D18" s="21">
+        <v>353.65</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="19">
+        <v>43952</v>
+      </c>
+      <c r="I18" s="21">
+        <v>9446.57</v>
+      </c>
+      <c r="K18">
+        <v>353.65</v>
+      </c>
+      <c r="L18">
+        <v>9446.57</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>125068.32249999998</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>89237684.764899999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>3340779.4804999996</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>-0.69333333333332803</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>-7315.1959999999999</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>0.48071111111110376</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>53512092.518416002</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>5071.8692266666276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="19">
+        <v>43983</v>
+      </c>
+      <c r="D19" s="21">
+        <v>379.31</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19">
+        <v>43983</v>
+      </c>
+      <c r="I19" s="21">
+        <v>9136.2000000000007</v>
+      </c>
+      <c r="K19">
+        <v>379.31</v>
+      </c>
+      <c r="L19">
+        <v>9136.2000000000007</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>143876.07610000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>83470150.440000013</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>3465452.0220000003</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>24.966666666666697</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>-7625.5659999999989</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>623.33444444444592</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>58149256.820355982</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>-190384.96446666686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44013</v>
+      </c>
+      <c r="D20" s="21">
+        <v>424.58</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="19">
+        <v>44013</v>
+      </c>
+      <c r="I20" s="21">
+        <v>11351.62</v>
+      </c>
+      <c r="K20">
+        <v>424.58</v>
+      </c>
+      <c r="L20">
+        <v>11351.62</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>180268.1764</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>128859276.62440002</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>4819670.8196</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>70.236666666666679</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>-5410.1459999999988</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>4933.1893444444459</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>29269679.741315987</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>-379990.62121999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="19">
+        <v>44044</v>
+      </c>
+      <c r="D21" s="21">
+        <v>535</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="19">
+        <v>44044</v>
+      </c>
+      <c r="I21" s="21">
+        <v>11655</v>
+      </c>
+      <c r="K21">
+        <v>535</v>
+      </c>
+      <c r="L21">
+        <v>11655</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>286225</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>135839025</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>6235425</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>180.65666666666669</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>-5106.7659999999996</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>32636.831211111123</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>26079058.978755996</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>-922571.32300666673</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="19">
+        <v>44075</v>
+      </c>
+      <c r="D22" s="21">
+        <v>540.80999999999995</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="19">
+        <v>44075</v>
+      </c>
+      <c r="I22" s="21">
+        <v>10779.63</v>
+      </c>
+      <c r="K22">
+        <v>540.80999999999995</v>
+      </c>
+      <c r="L22">
+        <v>10779.63</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>292475.45609999995</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>116200422.93689999</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>5829731.7002999987</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>186.46666666666664</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>-5982.1360000000004</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>34769.817777777767</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>35785951.122496001</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>-1115468.9594666667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19">
+        <v>44105</v>
+      </c>
+      <c r="D23" s="21">
+        <v>502.06</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19">
+        <v>44105</v>
+      </c>
+      <c r="I23" s="21">
+        <v>13804.81</v>
+      </c>
+      <c r="K23">
+        <v>502.06</v>
+      </c>
+      <c r="L23">
+        <v>13804.81</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>252064.24360000002</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>190572779.13609999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>6930842.9085999997</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>147.7166666666667</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>-2956.9560000000001</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>21820.213611111121</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>8743588.7859360017</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>-436791.68380000012</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="19">
+        <v>44136</v>
+      </c>
+      <c r="D24" s="21">
+        <v>536.4</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="19">
+        <v>44136</v>
+      </c>
+      <c r="I24" s="21">
+        <v>19713.939999999999</v>
+      </c>
+      <c r="K24">
+        <v>536.4</v>
+      </c>
+      <c r="L24">
+        <v>19713.939999999999</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>287724.95999999996</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>388639430.32359993</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>10574557.415999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>182.05666666666667</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>2952.1739999999991</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>33144.629877777777</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>8715331.326275995</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>537462.95785999985</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="19">
+        <v>44166</v>
+      </c>
+      <c r="D25" s="21">
+        <v>522.07000000000005</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="19">
+        <v>44166</v>
+      </c>
+      <c r="I25" s="21">
+        <v>28990.080000000002</v>
+      </c>
+      <c r="K25">
+        <v>522.07000000000005</v>
+      </c>
+      <c r="L25">
+        <v>28990.080000000002</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>272557.08490000007</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>840424738.40640008</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>15134851.065600002</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>167.72666666666674</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>12228.314000000002</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>28132.234711111138</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>149531663.28259605</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>2051014.3461733346</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="19">
+        <v>44197</v>
+      </c>
+      <c r="D26" s="21">
+        <v>518.87</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="19">
+        <v>44197</v>
+      </c>
+      <c r="I26" s="21">
+        <v>33137.74</v>
+      </c>
+      <c r="K26">
+        <v>518.87</v>
+      </c>
+      <c r="L26">
+        <v>33137.74</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>269226.07689999999</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>1098109812.3075998</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>17194179.1538</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>164.5266666666667</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>16375.973999999998</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>27069.024044444453</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>268172524.44867596</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>2694284.4156400003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="19">
+        <v>44228</v>
+      </c>
+      <c r="D27" s="21">
+        <v>548.80999999999995</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="19">
+        <v>44228</v>
+      </c>
+      <c r="I27" s="21">
+        <v>45231.75</v>
+      </c>
+      <c r="K27">
+        <v>548.80999999999995</v>
+      </c>
+      <c r="L27">
+        <v>45231.75</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>301192.41609999991</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>2045911208.0625</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>24823636.717499997</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>194.46666666666664</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>28469.984</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>37817.284444444434</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>810539988.96025598</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>5536462.8885333324</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="19">
+        <v>44256</v>
+      </c>
+      <c r="D28" s="21">
+        <v>534.11</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="19">
+        <v>44256</v>
+      </c>
+      <c r="I28" s="21">
+        <v>58800</v>
+      </c>
+      <c r="K28">
+        <v>534.11</v>
+      </c>
+      <c r="L28">
+        <v>58800</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>285273.49210000003</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>3457440000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>31405668</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>179.76666666666671</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>42038.233999999997</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>32316.05444444446</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>1767213117.8387556</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>7557073.1987333344</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44287</v>
+      </c>
+      <c r="D29" s="21">
+        <v>600.37</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="19">
+        <v>44287</v>
+      </c>
+      <c r="I29" s="21">
+        <v>57798.77</v>
+      </c>
+      <c r="K29">
+        <v>600.37</v>
+      </c>
+      <c r="L29">
+        <v>57798.77</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>360444.13689999998</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>3340697813.5128994</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>34700647.5449</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>246.0266666666667</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>41037.004000000001</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>60529.120711111129</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>1684035697.296016</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>10096197.304106668</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19">
+        <v>44317</v>
+      </c>
+      <c r="D30" s="21">
+        <v>649.80999999999995</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="19">
+        <v>44317</v>
+      </c>
+      <c r="I30" s="21">
+        <v>37279.31</v>
+      </c>
+      <c r="K30">
+        <v>649.80999999999995</v>
+      </c>
+      <c r="L30">
+        <v>37279.31</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>422253.03609999991</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>1389746954.0760999</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>24224468.431099996</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>295.46666666666664</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>20517.543999999998</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>87300.551111111097</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>420969611.79193592</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>6062250.3338666651</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="26">
+        <v>44348</v>
+      </c>
+      <c r="D31" s="27">
+        <v>800.64</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="26">
+        <v>44348</v>
+      </c>
+      <c r="I31" s="27">
+        <v>35060</v>
+      </c>
+      <c r="K31">
+        <v>800.64</v>
+      </c>
+      <c r="L31">
+        <v>35060</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>641024.40960000001</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>1229203600</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>28070438.399999999</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>446.29666666666668</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>18298.234</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>199180.71467777778</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>334825367.51875603</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>8166440.8400866669</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f>SUM(Таблица13[(xi - xср.)^2])</f>
+        <v>1020889.1586666666</v>
+      </c>
+      <c r="S34" s="1">
+        <f>SUM(Таблица13[(yi - yср.)^2])</f>
+        <v>7095900533.1183195</v>
+      </c>
+      <c r="T34" s="1">
+        <f>SUM(Таблица13[(xi - xср.) * (yi - yср.)])</f>
+        <v>62901021.042999998</v>
+      </c>
+    </row>
+    <row r="36" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="T37" s="17">
+        <f>T34/SQRT(R34*S34)</f>
+        <v>0.73903437556586871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/5 semester/Econometrics/Prac 02/Prac 02.xlsx
+++ b/5 semester/Econometrics/Prac 02/Prac 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\FU\5 semester\Econometrics\Prac 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A9CD0-0FF7-45EE-84D0-6D898AF0BA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86858B54-BD68-4FD8-9031-E1ED1E7AEF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
   </bookViews>
   <sheets>
     <sheet name="Prac 2" sheetId="1" r:id="rId1"/>
@@ -413,15 +413,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -481,13 +472,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -497,6 +481,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -562,13 +553,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -582,6 +566,22 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2844,10 +2844,10 @@
     <tableColumn id="5" xr3:uid="{FB6674B3-D038-4531-BFE3-64E9AD9A2BD9}" name="xi * yi">
       <calculatedColumnFormula>K2*L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A4FB0522-293C-477D-9766-28EFAC40A445}" name="xi - xср." dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{A4FB0522-293C-477D-9766-28EFAC40A445}" name="xi - xср." dataDxfId="14">
       <calculatedColumnFormula>K2-$V$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{563BBB41-3556-4E34-B3E4-C249A5DD9113}" name="yi - yср." dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{563BBB41-3556-4E34-B3E4-C249A5DD9113}" name="yi - yср." dataDxfId="13">
       <calculatedColumnFormula>L2-$W$2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{2538262B-8D6F-4BF6-ACBB-F6F284F7EB2C}" name="(xi - xср.)^2">
@@ -2856,7 +2856,7 @@
     <tableColumn id="9" xr3:uid="{CD9B3A4B-A636-4CF8-A1F1-0167B10465BA}" name="(yi - yср.)^2">
       <calculatedColumnFormula>POWER(Q2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{21DD2082-CD7D-440A-9C77-11DED2FA4A65}" name="(xi - xср.) * (yi - yср.)" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{21DD2082-CD7D-440A-9C77-11DED2FA4A65}" name="(xi - xср.) * (yi - yср.)" dataDxfId="12">
       <calculatedColumnFormula>P2*Q2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2865,24 +2865,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CAE09ED-03BF-4CFC-A2BB-726B443F9061}" name="Таблица3" displayName="Таблица3" ref="G1:I31" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CAE09ED-03BF-4CFC-A2BB-726B443F9061}" name="Таблица3" displayName="Таблица3" ref="G1:I31" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="G1:I31" xr:uid="{9CAE09ED-03BF-4CFC-A2BB-726B443F9061}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E7D1EA1B-EAEB-4A40-A146-315753BFB76B}" name="&lt;TICKER&gt;" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D6D77F97-33B0-4DC7-803F-EEA0C982B320}" name="&lt;DATE&gt;" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F93ADC83-7D00-4A03-A079-4BD8AAAABCCF}" name="&lt;CLOSE&gt;" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E7D1EA1B-EAEB-4A40-A146-315753BFB76B}" name="&lt;TICKER&gt;" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D6D77F97-33B0-4DC7-803F-EEA0C982B320}" name="&lt;DATE&gt;" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F93ADC83-7D00-4A03-A079-4BD8AAAABCCF}" name="&lt;CLOSE&gt;" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2E5D77FF-56EB-4ECC-9104-3B03BE44AEF4}" name="Таблица4" displayName="Таблица4" ref="B1:D31" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2E5D77FF-56EB-4ECC-9104-3B03BE44AEF4}" name="Таблица4" displayName="Таблица4" ref="B1:D31" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B1:D31" xr:uid="{2E5D77FF-56EB-4ECC-9104-3B03BE44AEF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{150A815B-848A-4277-8505-FE971E7C5602}" name="&lt;TICKER&gt;" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EA3EE53D-6F1A-44D8-966B-F27C85471066}" name="&lt;DATE&gt;" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{FCBE7811-49CB-4FBC-A802-52896B708A00}" name="&lt;CLOSE&gt;" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{150A815B-848A-4277-8505-FE971E7C5602}" name="&lt;TICKER&gt;" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EA3EE53D-6F1A-44D8-966B-F27C85471066}" name="&lt;DATE&gt;" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FCBE7811-49CB-4FBC-A802-52896B708A00}" name="&lt;CLOSE&gt;" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3187,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B9445D-CCE5-B848-9871-42130D3E07D6}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3272,11 +3272,11 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>A2-$L$2</f>
+        <f t="shared" ref="F2:F31" si="0">A2-$L$2</f>
         <v>-14.5</v>
       </c>
       <c r="G2">
-        <f>B2-$M$2</f>
+        <f t="shared" ref="G2:G31" si="1">B2-$M$2</f>
         <v>-29</v>
       </c>
       <c r="H2">
@@ -3316,35 +3316,35 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D31" si="0">POWER(A3,2)</f>
+        <f t="shared" ref="C3:D31" si="2">POWER(A3,2)</f>
         <v>4</v>
       </c>
       <c r="D3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="3">A3*B3</f>
+        <v>6</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E31" si="1">A3*B3</f>
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <f>A3-$L$2</f>
         <v>-13.5</v>
       </c>
       <c r="G3">
-        <f>B3-$M$2</f>
+        <f t="shared" si="1"/>
         <v>-27</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I31" si="2">POWER(F3,2)</f>
+        <f t="shared" ref="H3:I31" si="4">POWER(F3,2)</f>
         <v>182.25</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="3">F3*G3</f>
+        <f t="shared" ref="J3:J31" si="5">F3*G3</f>
         <v>364.5</v>
       </c>
     </row>
@@ -3356,27 +3356,27 @@
         <v>5</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E4">
+        <v>-12.5</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <f>A4-$L$2</f>
-        <v>-12.5</v>
-      </c>
-      <c r="G4">
-        <f>B4-$M$2</f>
         <v>-25</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>156.25</v>
       </c>
       <c r="I4">
@@ -3384,7 +3384,7 @@
         <v>625</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
       <c r="L4" s="3"/>
@@ -3405,35 +3405,35 @@
         <v>7</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E5">
+        <v>-11.5</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <f>A5-$L$2</f>
-        <v>-11.5</v>
-      </c>
-      <c r="G5">
-        <f>B5-$M$2</f>
         <v>-23</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>132.25</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>264.5</v>
       </c>
       <c r="L5" s="7"/>
@@ -3454,35 +3454,35 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="E6">
+        <v>-10.5</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <f>A6-$L$2</f>
-        <v>-10.5</v>
-      </c>
-      <c r="G6">
-        <f>B6-$M$2</f>
         <v>-21</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110.25</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>220.5</v>
       </c>
       <c r="L6" s="11"/>
@@ -3503,35 +3503,35 @@
         <v>11</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E7">
+        <v>-9.5</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <f>A7-$L$2</f>
-        <v>-9.5</v>
-      </c>
-      <c r="G7">
-        <f>B7-$M$2</f>
         <v>-19</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90.25</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180.5</v>
       </c>
       <c r="L7" s="11"/>
@@ -3552,35 +3552,35 @@
         <v>13</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="E8">
+        <v>-8.5</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <f>A8-$L$2</f>
-        <v>-8.5</v>
-      </c>
-      <c r="G8">
-        <f>B8-$M$2</f>
         <v>-17</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72.25</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144.5</v>
       </c>
       <c r="L8" s="11"/>
@@ -3601,35 +3601,35 @@
         <v>15</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <f>A9-$L$2</f>
-        <v>-7.5</v>
-      </c>
-      <c r="G9">
-        <f>B9-$M$2</f>
-        <v>-15</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>56.25</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
       <c r="L9" s="11"/>
@@ -3650,35 +3650,35 @@
         <v>17</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>289</v>
-      </c>
-      <c r="E10">
+        <v>-6.5</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F10">
-        <f>A10-$L$2</f>
-        <v>-6.5</v>
-      </c>
-      <c r="G10">
-        <f>B10-$M$2</f>
         <v>-13</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.5</v>
       </c>
       <c r="L10" s="11"/>
@@ -3699,35 +3699,35 @@
         <v>19</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-      <c r="E11">
+        <v>-5.5</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="F11">
-        <f>A11-$L$2</f>
-        <v>-5.5</v>
-      </c>
-      <c r="G11">
-        <f>B11-$M$2</f>
         <v>-11</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.25</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="L11" s="11"/>
@@ -3748,35 +3748,35 @@
         <v>21</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>441</v>
-      </c>
-      <c r="E12">
+        <v>-4.5</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-      <c r="F12">
-        <f>A12-$L$2</f>
-        <v>-4.5</v>
-      </c>
-      <c r="G12">
-        <f>B12-$M$2</f>
         <v>-9</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.25</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
       <c r="L12" s="11"/>
@@ -3797,35 +3797,35 @@
         <v>23</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>276</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>529</v>
-      </c>
-      <c r="E13">
+        <v>-3.5</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="F13">
-        <f>A13-$L$2</f>
-        <v>-3.5</v>
-      </c>
-      <c r="G13">
-        <f>B13-$M$2</f>
         <v>-7</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.5</v>
       </c>
       <c r="L13" s="11"/>
@@ -3846,35 +3846,35 @@
         <v>25</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="E14">
+        <v>-2.5</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="F14">
-        <f>A14-$L$2</f>
-        <v>-2.5</v>
-      </c>
-      <c r="G14">
-        <f>B14-$M$2</f>
         <v>-5</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="L14" s="11"/>
@@ -3895,35 +3895,35 @@
         <v>27</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>729</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>729</v>
-      </c>
-      <c r="E15">
+        <v>-1.5</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="F15">
-        <f>A15-$L$2</f>
-        <v>-1.5</v>
-      </c>
-      <c r="G15">
-        <f>B15-$M$2</f>
         <v>-3</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="L15" s="11"/>
@@ -3944,35 +3944,35 @@
         <v>29</v>
       </c>
       <c r="C16">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>841</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>841</v>
-      </c>
-      <c r="E16">
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>435</v>
-      </c>
-      <c r="F16">
-        <f>A16-$L$2</f>
-        <v>-0.5</v>
-      </c>
-      <c r="G16">
-        <f>B16-$M$2</f>
         <v>-1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="L16" s="11"/>
@@ -3993,35 +3993,35 @@
         <v>31</v>
       </c>
       <c r="C17">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>961</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>496</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>961</v>
-      </c>
-      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>496</v>
-      </c>
-      <c r="F17">
-        <f>A17-$L$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <f>B17-$M$2</f>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="L17" s="11"/>
@@ -4042,35 +4042,35 @@
         <v>33</v>
       </c>
       <c r="C18">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1089</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>561</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>289</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1089</v>
-      </c>
-      <c r="E18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>561</v>
-      </c>
-      <c r="F18">
-        <f>A18-$L$2</f>
-        <v>1.5</v>
-      </c>
-      <c r="G18">
-        <f>B18-$M$2</f>
         <v>3</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="L18" s="11"/>
@@ -4091,35 +4091,35 @@
         <v>35</v>
       </c>
       <c r="C19">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>324</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-      <c r="E19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="F19">
-        <f>A19-$L$2</f>
-        <v>2.5</v>
-      </c>
-      <c r="G19">
-        <f>B19-$M$2</f>
         <v>5</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="L19" s="11"/>
@@ -4140,35 +4140,35 @@
         <v>37</v>
       </c>
       <c r="C20">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1369</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>703</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1369</v>
-      </c>
-      <c r="E20">
+        <v>3.5</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>703</v>
-      </c>
-      <c r="F20">
-        <f>A20-$L$2</f>
-        <v>3.5</v>
-      </c>
-      <c r="G20">
-        <f>B20-$M$2</f>
         <v>7</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.5</v>
       </c>
       <c r="L20" s="11"/>
@@ -4189,35 +4189,35 @@
         <v>39</v>
       </c>
       <c r="C21">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1521</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1521</v>
-      </c>
-      <c r="E21">
+        <v>4.5</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="F21">
-        <f>A21-$L$2</f>
-        <v>4.5</v>
-      </c>
-      <c r="G21">
-        <f>B21-$M$2</f>
         <v>9</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.25</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
       <c r="L21" s="11"/>
@@ -4238,35 +4238,35 @@
         <v>41</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1681</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>861</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>441</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1681</v>
-      </c>
-      <c r="E22">
+        <v>5.5</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>861</v>
-      </c>
-      <c r="F22">
-        <f>A22-$L$2</f>
-        <v>5.5</v>
-      </c>
-      <c r="G22">
-        <f>B22-$M$2</f>
         <v>11</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.25</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="L22" s="11"/>
@@ -4287,35 +4287,35 @@
         <v>43</v>
       </c>
       <c r="C23">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1849</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>946</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>484</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1849</v>
-      </c>
-      <c r="E23">
+        <v>6.5</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>946</v>
-      </c>
-      <c r="F23">
-        <f>A23-$L$2</f>
-        <v>6.5</v>
-      </c>
-      <c r="G23">
-        <f>B23-$M$2</f>
         <v>13</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.25</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.5</v>
       </c>
       <c r="L23" s="11"/>
@@ -4336,35 +4336,35 @@
         <v>45</v>
       </c>
       <c r="C24">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>529</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="E24">
+        <v>7.5</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>1035</v>
-      </c>
-      <c r="F24">
-        <f>A24-$L$2</f>
-        <v>7.5</v>
-      </c>
-      <c r="G24">
-        <f>B24-$M$2</f>
         <v>15</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.25</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
       <c r="L24" s="11"/>
@@ -4385,35 +4385,35 @@
         <v>47</v>
       </c>
       <c r="C25">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>2209</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1128</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>576</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>2209</v>
-      </c>
-      <c r="E25">
+        <v>8.5</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>1128</v>
-      </c>
-      <c r="F25">
-        <f>A25-$L$2</f>
-        <v>8.5</v>
-      </c>
-      <c r="G25">
-        <f>B25-$M$2</f>
         <v>17</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72.25</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144.5</v>
       </c>
       <c r="L25" s="11"/>
@@ -4434,35 +4434,35 @@
         <v>49</v>
       </c>
       <c r="C26">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>2401</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>2401</v>
-      </c>
-      <c r="E26">
+        <v>9.5</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
-        <v>1225</v>
-      </c>
-      <c r="F26">
-        <f>A26-$L$2</f>
-        <v>9.5</v>
-      </c>
-      <c r="G26">
-        <f>B26-$M$2</f>
         <v>19</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90.25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180.5</v>
       </c>
       <c r="L26" s="11"/>
@@ -4483,35 +4483,35 @@
         <v>51</v>
       </c>
       <c r="C27">
+        <f t="shared" si="2"/>
+        <v>676</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2601</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>1326</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>676</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>2601</v>
-      </c>
-      <c r="E27">
+        <v>10.5</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
-        <v>1326</v>
-      </c>
-      <c r="F27">
-        <f>A27-$L$2</f>
-        <v>10.5</v>
-      </c>
-      <c r="G27">
-        <f>B27-$M$2</f>
         <v>21</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110.25</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>220.5</v>
       </c>
       <c r="L27" s="11"/>
@@ -4532,35 +4532,35 @@
         <v>53</v>
       </c>
       <c r="C28">
+        <f t="shared" si="2"/>
+        <v>729</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2809</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>1431</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>729</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>2809</v>
-      </c>
-      <c r="E28">
+        <v>11.5</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="1"/>
-        <v>1431</v>
-      </c>
-      <c r="F28">
-        <f>A28-$L$2</f>
-        <v>11.5</v>
-      </c>
-      <c r="G28">
-        <f>B28-$M$2</f>
         <v>23</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>132.25</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>264.5</v>
       </c>
       <c r="L28" s="11"/>
@@ -4581,35 +4581,35 @@
         <v>55</v>
       </c>
       <c r="C29">
+        <f t="shared" si="2"/>
+        <v>784</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>3025</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>1540</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>784</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>3025</v>
-      </c>
-      <c r="E29">
+        <v>12.5</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
-        <v>1540</v>
-      </c>
-      <c r="F29">
-        <f>A29-$L$2</f>
-        <v>12.5</v>
-      </c>
-      <c r="G29">
-        <f>B29-$M$2</f>
         <v>25</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>156.25</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
       <c r="L29" s="11"/>
@@ -4630,35 +4630,35 @@
         <v>57</v>
       </c>
       <c r="C30">
+        <f t="shared" si="2"/>
+        <v>841</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>3249</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>1653</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
-        <v>841</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>3249</v>
-      </c>
-      <c r="E30">
+        <v>13.5</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
-        <v>1653</v>
-      </c>
-      <c r="F30">
-        <f>A30-$L$2</f>
-        <v>13.5</v>
-      </c>
-      <c r="G30">
-        <f>B30-$M$2</f>
         <v>27</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182.25</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>364.5</v>
       </c>
       <c r="L30" s="11"/>
@@ -4679,35 +4679,35 @@
         <v>59</v>
       </c>
       <c r="C31">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>3481</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>1770</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>3481</v>
-      </c>
-      <c r="E31">
+        <v>14.5</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="1"/>
-        <v>1770</v>
-      </c>
-      <c r="F31">
-        <f>A31-$L$2</f>
-        <v>14.5</v>
-      </c>
-      <c r="G31">
-        <f>B31-$M$2</f>
         <v>29</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>210.25</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>841</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>420.5</v>
       </c>
       <c r="L31" s="12"/>
@@ -4771,7 +4771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02FB51-F143-4BA9-B7E1-AED3DA91C078}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>

--- a/5 semester/Econometrics/Prac 02/Prac 02.xlsx
+++ b/5 semester/Econometrics/Prac 02/Prac 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\FU\5 semester\Econometrics\Prac 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farkhad/Desktop/FU/5 semester/Econometrics/Prac 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86858B54-BD68-4FD8-9031-E1ED1E7AEF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20A9879-BA57-364F-99B4-358F0EF5C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
   </bookViews>
   <sheets>
     <sheet name="Prac 2" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>x_</t>
-  </si>
-  <si>
-    <t>y_</t>
   </si>
   <si>
     <t>x^2</t>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>GDAX.BTC-USD</t>
+  </si>
+  <si>
+    <t>xср.</t>
+  </si>
+  <si>
+    <t>yср.</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -407,6 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2758,15 +2759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
+      <xdr:colOff>122236</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3188,27 +3189,27 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="12" max="12" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3216,43 +3217,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>364.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3397,7 +3398,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3446,7 +3447,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3495,7 +3496,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3544,7 +3545,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3593,7 +3594,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3642,7 +3643,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3691,7 +3692,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3789,7 +3790,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3838,7 +3839,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3936,7 +3937,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3985,7 +3986,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4034,7 +4035,7 @@
       <c r="S17" s="9"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4083,7 +4084,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4132,7 +4133,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4181,7 +4182,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4230,7 +4231,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4279,7 +4280,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4328,7 +4329,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4377,7 +4378,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4426,7 +4427,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4475,7 +4476,7 @@
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4524,7 +4525,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4573,7 +4574,7 @@
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4622,7 +4623,7 @@
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4671,7 +4672,7 @@
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4720,18 +4721,18 @@
       <c r="S31" s="13"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H34" s="1">
         <f>SUM(Таблица1[(xi - xср.)^2])</f>
         <v>2247.5</v>
@@ -4745,14 +4746,14 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
       <c r="J37" s="17">
         <f>J34/SQRT(H34*I34)</f>
         <v>1</v>
@@ -4769,57 +4770,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02FB51-F143-4BA9-B7E1-AED3DA91C078}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.375" customWidth="1"/>
-    <col min="24" max="24" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>19</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -4828,45 +4831,45 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="19">
         <v>43466</v>
@@ -4875,7 +4878,7 @@
         <v>143.69999999999999</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19">
         <v>43466</v>
@@ -4938,9 +4941,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="19">
         <v>43497</v>
@@ -4949,7 +4952,7 @@
         <v>154.32</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="19">
         <v>43497</v>
@@ -4996,9 +4999,9 @@
         <v>2594227.8246066663</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="19">
         <v>43525</v>
@@ -5007,7 +5010,7 @@
         <v>179.56</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="19">
         <v>43525</v>
@@ -5053,10 +5056,18 @@
         <f t="shared" si="2"/>
         <v>2213941.3318666662</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V4" s="28"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="19">
         <v>43556</v>
@@ -5065,7 +5076,7 @@
         <v>181.07</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="19">
         <v>43556</v>
@@ -5111,10 +5122,18 @@
         <f t="shared" si="2"/>
         <v>1991097.0421066666</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V5" s="11"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="10"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="19">
         <v>43586</v>
@@ -5123,7 +5142,7 @@
         <v>135.44</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="19">
         <v>43586</v>
@@ -5169,10 +5188,18 @@
         <f t="shared" si="2"/>
         <v>1796694.2024199998</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6" s="11"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="10"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19">
         <v>43617</v>
@@ -5181,7 +5208,7 @@
         <v>164.22</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="19">
         <v>43617</v>
@@ -5227,10 +5254,18 @@
         <f t="shared" si="2"/>
         <v>1140836.2024066665</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V7" s="11"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="10"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19">
         <v>43647</v>
@@ -5239,7 +5274,7 @@
         <v>168.69</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="19">
         <v>43647</v>
@@ -5285,10 +5320,18 @@
         <f t="shared" si="2"/>
         <v>1239136.8611199998</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V8" s="11"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="10"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="19">
         <v>43678</v>
@@ -5297,7 +5340,7 @@
         <v>167.54</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="19">
         <v>43678</v>
@@ -5343,10 +5386,18 @@
         <f t="shared" si="2"/>
         <v>1337681.1104866664</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V9" s="11"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="19">
         <v>43709</v>
@@ -5355,7 +5406,7 @@
         <v>174.06</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="19">
         <v>43709</v>
@@ -5401,10 +5452,18 @@
         <f t="shared" si="2"/>
         <v>1524621.1750333332</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V10" s="11"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="10"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="19">
         <v>43739</v>
@@ -5413,7 +5472,7 @@
         <v>201.04</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="19">
         <v>43739</v>
@@ -5459,10 +5518,18 @@
         <f t="shared" si="2"/>
         <v>1165455.7847533331</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" s="11"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="10"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="19">
         <v>43770</v>
@@ -5471,7 +5538,7 @@
         <v>216.74</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="19">
         <v>43770</v>
@@ -5517,10 +5584,18 @@
         <f t="shared" si="2"/>
         <v>1266755.0957533328</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" s="11"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="10"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="19">
         <v>43800</v>
@@ -5529,7 +5604,7 @@
         <v>235.29</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="19">
         <v>43800</v>
@@ -5575,10 +5650,18 @@
         <f t="shared" si="2"/>
         <v>1142441.2631199996</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V13" s="11"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="19">
         <v>43831</v>
@@ -5587,7 +5670,7 @@
         <v>236.43</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="19">
         <v>43831</v>
@@ -5633,10 +5716,18 @@
         <f t="shared" si="2"/>
         <v>875717.09321333305</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V14" s="11"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="10"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="19">
         <v>43862</v>
@@ -5645,7 +5736,7 @@
         <v>270.08</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="19">
         <v>43862</v>
@@ -5691,10 +5782,18 @@
         <f t="shared" si="2"/>
         <v>694051.46061333327</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V15" s="11"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="10"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="19">
         <v>43891</v>
@@ -5703,7 +5802,7 @@
         <v>263.58</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="19">
         <v>43891</v>
@@ -5749,10 +5848,18 @@
         <f t="shared" si="2"/>
         <v>938258.33421333309</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V16" s="11"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="10"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="19">
         <v>43922</v>
@@ -5761,7 +5868,7 @@
         <v>292.05</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="19">
         <v>43922</v>
@@ -5807,10 +5914,18 @@
         <f t="shared" si="2"/>
         <v>506911.12789333297</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V17" s="11"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="10"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="19">
         <v>43952</v>
@@ -5819,7 +5934,7 @@
         <v>353.65</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="19">
         <v>43952</v>
@@ -5865,10 +5980,18 @@
         <f t="shared" si="2"/>
         <v>5071.8692266666276</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V18" s="11"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="10"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="19">
         <v>43983</v>
@@ -5877,7 +6000,7 @@
         <v>379.31</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="19">
         <v>43983</v>
@@ -5923,10 +6046,18 @@
         <f t="shared" si="2"/>
         <v>-190384.96446666686</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V19" s="11"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="10"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="19">
         <v>44013</v>
@@ -5935,7 +6066,7 @@
         <v>424.58</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20" s="19">
         <v>44013</v>
@@ -5981,10 +6112,18 @@
         <f t="shared" si="2"/>
         <v>-379990.62121999997</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V20" s="11"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="10"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="19">
         <v>44044</v>
@@ -5993,7 +6132,7 @@
         <v>535</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="19">
         <v>44044</v>
@@ -6039,10 +6178,18 @@
         <f t="shared" si="2"/>
         <v>-922571.32300666673</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V21" s="11"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="10"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="19">
         <v>44075</v>
@@ -6051,7 +6198,7 @@
         <v>540.80999999999995</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" s="19">
         <v>44075</v>
@@ -6097,10 +6244,18 @@
         <f t="shared" si="2"/>
         <v>-1115468.9594666667</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V22" s="11"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="19">
         <v>44105</v>
@@ -6109,7 +6264,7 @@
         <v>502.06</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" s="19">
         <v>44105</v>
@@ -6155,10 +6310,18 @@
         <f t="shared" si="2"/>
         <v>-436791.68380000012</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V23" s="11"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="19">
         <v>44136</v>
@@ -6167,7 +6330,7 @@
         <v>536.4</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="19">
         <v>44136</v>
@@ -6213,10 +6376,18 @@
         <f t="shared" si="2"/>
         <v>537462.95785999985</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V24" s="11"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="10"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="19">
         <v>44166</v>
@@ -6225,7 +6396,7 @@
         <v>522.07000000000005</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" s="19">
         <v>44166</v>
@@ -6271,10 +6442,18 @@
         <f t="shared" si="2"/>
         <v>2051014.3461733346</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V25" s="11"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="10"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19">
         <v>44197</v>
@@ -6283,7 +6462,7 @@
         <v>518.87</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="19">
         <v>44197</v>
@@ -6329,10 +6508,18 @@
         <f t="shared" si="2"/>
         <v>2694284.4156400003</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V26" s="11"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="10"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="19">
         <v>44228</v>
@@ -6341,7 +6528,7 @@
         <v>548.80999999999995</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="19">
         <v>44228</v>
@@ -6387,10 +6574,18 @@
         <f t="shared" si="2"/>
         <v>5536462.8885333324</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V27" s="11"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="10"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="19">
         <v>44256</v>
@@ -6399,7 +6594,7 @@
         <v>534.11</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28" s="19">
         <v>44256</v>
@@ -6445,10 +6640,18 @@
         <f t="shared" si="2"/>
         <v>7557073.1987333344</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V28" s="11"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="10"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="19">
         <v>44287</v>
@@ -6457,7 +6660,7 @@
         <v>600.37</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="19">
         <v>44287</v>
@@ -6503,10 +6706,18 @@
         <f t="shared" si="2"/>
         <v>10096197.304106668</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V29" s="11"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="10"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="19">
         <v>44317</v>
@@ -6515,7 +6726,7 @@
         <v>649.80999999999995</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" s="19">
         <v>44317</v>
@@ -6561,10 +6772,18 @@
         <f t="shared" si="2"/>
         <v>6062250.3338666651</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V30" s="11"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="10"/>
+    </row>
+    <row r="31" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="26">
         <v>44348</v>
@@ -6573,7 +6792,7 @@
         <v>800.64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" s="26">
         <v>44348</v>
@@ -6619,23 +6838,31 @@
         <f t="shared" si="2"/>
         <v>8166440.8400866669</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V31" s="12"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="14"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="18:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R34" s="1">
         <f>SUM(Таблица13[(xi - xср.)^2])</f>
         <v>1020889.1586666666</v>
@@ -6649,14 +6876,14 @@
         <v>62901021.042999998</v>
       </c>
     </row>
-    <row r="36" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="18:20" x14ac:dyDescent="0.2">
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="18:20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="18:20" x14ac:dyDescent="0.2">
       <c r="T37" s="17">
         <f>T34/SQRT(R34*S34)</f>
         <v>0.73903437556586871</v>

--- a/5 semester/Econometrics/Prac 02/Prac 02.xlsx
+++ b/5 semester/Econometrics/Prac 02/Prac 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farkhad/Desktop/FU/5 semester/Econometrics/Prac 02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\FU\5 semester\Econometrics\Prac 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20A9879-BA57-364F-99B4-358F0EF5C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99711498-9148-4BD0-BF8B-AFFC38C4C7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9364AE5F-6EFE-784C-868A-5C9DE0B02925}"/>
   </bookViews>
   <sheets>
     <sheet name="Prac 2" sheetId="1" r:id="rId1"/>
@@ -3188,28 +3188,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B9445D-CCE5-B848-9871-42130D3E07D6}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="8.125" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>364.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="S17" s="9"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="S26" s="9"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="S28" s="9"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="S29" s="9"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="S31" s="13"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33" s="16" t="s">
         <v>12</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H34" s="1">
         <f>SUM(Таблица1[(xi - xср.)^2])</f>
         <v>2247.5</v>
@@ -4746,14 +4746,14 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
       <c r="J37" s="17">
         <f>J34/SQRT(H34*I34)</f>
         <v>1</v>
@@ -4772,34 +4772,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C02FB51-F143-4BA9-B7E1-AED3DA91C078}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="G1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>2594227.8246066663</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>18</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="10"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5263,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="10"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="10"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="10"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="10"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="10"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>18</v>
       </c>
@@ -5791,7 +5791,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="10"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="10"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>18</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="10"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="10"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="10"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="10"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="10"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
@@ -6253,7 +6253,7 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="10"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>18</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>18</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="10"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>18</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="10"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>18</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="10"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="10"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>18</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="10"/>
     </row>
-    <row r="31" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
         <v>18</v>
       </c>
@@ -6847,11 +6847,11 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="14"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R33" s="16" t="s">
         <v>12</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R34" s="1">
         <f>SUM(Таблица13[(xi - xср.)^2])</f>
         <v>1020889.1586666666</v>
@@ -6876,14 +6876,14 @@
         <v>62901021.042999998</v>
       </c>
     </row>
-    <row r="36" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="18:20" x14ac:dyDescent="0.25">
       <c r="T37" s="17">
         <f>T34/SQRT(R34*S34)</f>
         <v>0.73903437556586871</v>
